--- a/job/面试笔试记录.xlsx
+++ b/job/面试笔试记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>联通支付有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,6 +29,44 @@
   </si>
   <si>
     <t>10.18笔试面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月16日19:00-21:00 本部九教中101</t>
+  </si>
+  <si>
+    <t>银之杰</t>
+  </si>
+  <si>
+    <t>中国移动政企客户分公司</t>
+  </si>
+  <si>
+    <t>于 2016年10月16日 23:59 失效</t>
+  </si>
+  <si>
+    <t>到场笔试面试预约：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线笔试面试预约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国移动通信集团设计院有限公司 </t>
+  </si>
+  <si>
+    <t>于 2016年10月26日 23:21 失效</t>
+  </si>
+  <si>
+    <t>宣讲会（现场笔试）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动设计院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.16上午10:30面试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,33 +447,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.5" defaultRowHeight="51" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="1"/>
-    <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="28.5" style="1"/>
+    <col min="1" max="1" width="39.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="69.25" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="28.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/job/面试笔试记录.xlsx
+++ b/job/面试笔试记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>联通支付有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,14 @@
   </si>
   <si>
     <t>10.16上午10:30面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中移在线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.30笔试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,12 +98,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,9 +124,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -161,7 +178,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -203,7 +220,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,7 +255,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,33 +464,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.5" defaultRowHeight="51" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="28.44140625" defaultRowHeight="51" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="69.25" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="28.5" style="1"/>
+    <col min="1" max="1" width="39.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="69.21875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="28.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -481,41 +498,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
